--- a/OC_Proba_Santi_FI0122_FF1024_v1.xlsx
+++ b/OC_Proba_Santi_FI0122_FF1024_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E217A-4B62-4EC8-9D33-5F4BC7D37C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE7811E-4399-4B2D-A0A3-27F0B4534AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I704"/>
+  <dimension ref="A1:I734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A685" workbookViewId="0">
-      <selection activeCell="G697" sqref="G697"/>
+    <sheetView tabSelected="1" topLeftCell="A711" workbookViewId="0">
+      <selection activeCell="L677" sqref="L677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,6 +466,8 @@
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10804,7 +10806,7 @@
         <v>45078</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D357">
         <v>0.58333333333333337</v>
@@ -10822,7 +10824,7 @@
       </c>
       <c r="H357">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
@@ -10833,7 +10835,7 @@
         <v>45079</v>
       </c>
       <c r="C358">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D358">
         <v>0.56666666666666665</v>
@@ -10851,7 +10853,7 @@
       </c>
       <c r="H358">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
@@ -10862,7 +10864,7 @@
         <v>45082</v>
       </c>
       <c r="C359">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D359">
         <v>0.65</v>
@@ -10880,7 +10882,7 @@
       </c>
       <c r="H359">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
@@ -10891,7 +10893,7 @@
         <v>45083</v>
       </c>
       <c r="C360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D360">
         <v>0.51666666666666672</v>
@@ -10909,7 +10911,7 @@
       </c>
       <c r="H360">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
@@ -10920,7 +10922,7 @@
         <v>45084</v>
       </c>
       <c r="C361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D361">
         <v>0.4</v>
@@ -10938,7 +10940,7 @@
       </c>
       <c r="H361">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -10949,7 +10951,7 @@
         <v>45085</v>
       </c>
       <c r="C362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D362">
         <v>0.35</v>
@@ -10967,7 +10969,7 @@
       </c>
       <c r="H362">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
@@ -10978,7 +10980,7 @@
         <v>45086</v>
       </c>
       <c r="C363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D363">
         <v>0.46666666666666667</v>
@@ -10996,7 +10998,7 @@
       </c>
       <c r="H363">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
@@ -11094,7 +11096,7 @@
         <v>45092</v>
       </c>
       <c r="C367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D367">
         <v>0.45</v>
@@ -11112,7 +11114,7 @@
       </c>
       <c r="H367">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
@@ -11181,7 +11183,7 @@
         <v>45098</v>
       </c>
       <c r="C370">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D370">
         <v>0.5</v>
@@ -11199,7 +11201,7 @@
       </c>
       <c r="H370">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
@@ -19330,7 +19332,7 @@
         <v>45506</v>
       </c>
       <c r="C651">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D651">
         <v>0.48333333333333328</v>
@@ -19348,7 +19350,7 @@
       </c>
       <c r="H651">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.3">
@@ -19388,7 +19390,7 @@
         <v>45510</v>
       </c>
       <c r="C653">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D653">
         <v>0.38333333333333341</v>
@@ -19406,7 +19408,7 @@
       </c>
       <c r="H653">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.3">
@@ -19417,7 +19419,7 @@
         <v>45511</v>
       </c>
       <c r="C654">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D654">
         <v>0.5</v>
@@ -19435,7 +19437,7 @@
       </c>
       <c r="H654">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.3">
@@ -19475,7 +19477,7 @@
         <v>45513</v>
       </c>
       <c r="C656">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D656">
         <v>0.45</v>
@@ -19493,7 +19495,7 @@
       </c>
       <c r="H656">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.3">
@@ -19504,7 +19506,7 @@
         <v>45516</v>
       </c>
       <c r="C657">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D657">
         <v>0.48333333333333328</v>
@@ -19522,7 +19524,7 @@
       </c>
       <c r="H657">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.3">
@@ -19649,7 +19651,7 @@
         <v>45523</v>
       </c>
       <c r="C662">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D662">
         <v>0.53333333333333333</v>
@@ -19667,7 +19669,7 @@
       </c>
       <c r="H662">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.3">
@@ -19678,7 +19680,7 @@
         <v>45524</v>
       </c>
       <c r="C663">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D663">
         <v>0.71666666666666667</v>
@@ -19696,7 +19698,7 @@
       </c>
       <c r="H663">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.3">
@@ -19707,7 +19709,7 @@
         <v>45525</v>
       </c>
       <c r="C664">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D664">
         <v>0.48333333333333328</v>
@@ -19725,7 +19727,7 @@
       </c>
       <c r="H664">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.3">
@@ -19736,7 +19738,7 @@
         <v>45526</v>
       </c>
       <c r="C665">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D665">
         <v>0.6</v>
@@ -19754,7 +19756,7 @@
       </c>
       <c r="H665">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.3">
@@ -19765,7 +19767,7 @@
         <v>45527</v>
       </c>
       <c r="C666">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D666">
         <v>0.6</v>
@@ -19783,7 +19785,7 @@
       </c>
       <c r="H666">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.3">
@@ -19794,7 +19796,7 @@
         <v>45530</v>
       </c>
       <c r="C667">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D667">
         <v>0.55000000000000004</v>
@@ -19812,7 +19814,7 @@
       </c>
       <c r="H667">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.3">
@@ -19823,7 +19825,7 @@
         <v>45531</v>
       </c>
       <c r="C668">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D668">
         <v>0.56666666666666665</v>
@@ -19841,7 +19843,7 @@
       </c>
       <c r="H668">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.3">
@@ -19881,7 +19883,7 @@
         <v>45533</v>
       </c>
       <c r="C670">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D670">
         <v>0.6</v>
@@ -19899,7 +19901,7 @@
       </c>
       <c r="H670">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.3">
@@ -19910,7 +19912,7 @@
         <v>45534</v>
       </c>
       <c r="C671">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D671">
         <v>0.48333333333333328</v>
@@ -19928,7 +19930,7 @@
       </c>
       <c r="H671">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.3">
@@ -19939,7 +19941,7 @@
         <v>45538</v>
       </c>
       <c r="C672">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D672">
         <v>0.46666666666666667</v>
@@ -19957,7 +19959,7 @@
       </c>
       <c r="H672">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.3">
@@ -19968,7 +19970,7 @@
         <v>45539</v>
       </c>
       <c r="C673">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D673">
         <v>0.5</v>
@@ -19986,7 +19988,7 @@
       </c>
       <c r="H673">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.3">
@@ -20026,7 +20028,7 @@
         <v>45541</v>
       </c>
       <c r="C675">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D675">
         <v>0.58333333333333337</v>
@@ -20044,7 +20046,7 @@
       </c>
       <c r="H675">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.3">
@@ -20200,7 +20202,7 @@
         <v>45551</v>
       </c>
       <c r="C681">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D681">
         <v>0.45</v>
@@ -20218,7 +20220,7 @@
       </c>
       <c r="H681">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.3">
@@ -20287,7 +20289,7 @@
         <v>45554</v>
       </c>
       <c r="C684">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D684">
         <v>0.65</v>
@@ -20305,7 +20307,7 @@
       </c>
       <c r="H684">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.3">
@@ -20374,7 +20376,7 @@
         <v>45559</v>
       </c>
       <c r="C687">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D687">
         <v>0.56666666666666665</v>
@@ -20392,7 +20394,7 @@
       </c>
       <c r="H687">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.3">
@@ -20461,7 +20463,7 @@
         <v>45562</v>
       </c>
       <c r="C690">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D690">
         <v>0.66666666666666663</v>
@@ -20479,7 +20481,7 @@
       </c>
       <c r="H690">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.3">
@@ -20490,7 +20492,7 @@
         <v>45565</v>
       </c>
       <c r="C691">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D691">
         <v>0.5</v>
@@ -20506,6 +20508,10 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
+      <c r="H691">
+        <f>IF($C691=$F691,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A692">
@@ -20515,7 +20521,7 @@
         <v>45566</v>
       </c>
       <c r="C692">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D692">
         <v>0.48333333333333328</v>
@@ -20526,6 +20532,10 @@
       <c r="F692">
         <f t="shared" si="30"/>
         <v>1</v>
+      </c>
+      <c r="H692">
+        <f t="shared" ref="H692:H734" si="33">IF($C692=$F692,1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.3">
@@ -20548,6 +20558,10 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
+      <c r="H693">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A694">
@@ -20569,6 +20583,10 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
+      <c r="H694">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A695">
@@ -20578,7 +20596,7 @@
         <v>45569</v>
       </c>
       <c r="C695">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D695">
         <v>0.46666666666666667</v>
@@ -20588,6 +20606,10 @@
       </c>
       <c r="F695">
         <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="H695">
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
@@ -20599,7 +20621,7 @@
         <v>45572</v>
       </c>
       <c r="C696">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D696">
         <v>0.4</v>
@@ -20610,6 +20632,10 @@
       <c r="F696">
         <f t="shared" si="30"/>
         <v>1</v>
+      </c>
+      <c r="H696">
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.3">
@@ -20632,6 +20658,10 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
+      <c r="H697">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A698">
@@ -20653,6 +20683,10 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
+      <c r="H698">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A699">
@@ -20674,6 +20708,10 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
+      <c r="H699">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700">
@@ -20695,6 +20733,10 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
+      <c r="H700">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A701">
@@ -20716,6 +20758,10 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
+      <c r="H701">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A702">
@@ -20725,7 +20771,7 @@
         <v>45580</v>
       </c>
       <c r="C702">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D702">
         <v>0.45</v>
@@ -20736,6 +20782,10 @@
       <c r="F702">
         <f t="shared" si="30"/>
         <v>1</v>
+      </c>
+      <c r="H702">
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.3">
@@ -20746,7 +20796,7 @@
         <v>45581</v>
       </c>
       <c r="C703">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D703">
         <v>0.28333333333333333</v>
@@ -20756,6 +20806,10 @@
       </c>
       <c r="F703">
         <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="H703">
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
@@ -20767,7 +20821,7 @@
         <v>45582</v>
       </c>
       <c r="C704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D704">
         <v>0.3</v>
@@ -20778,6 +20832,730 @@
       <c r="F704">
         <f t="shared" si="30"/>
         <v>1</v>
+      </c>
+      <c r="H704">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>3725</v>
+      </c>
+      <c r="B705" s="2">
+        <v>45583</v>
+      </c>
+      <c r="C705">
+        <v>1</v>
+      </c>
+      <c r="D705">
+        <v>0.3</v>
+      </c>
+      <c r="E705">
+        <v>0.7</v>
+      </c>
+      <c r="F705">
+        <v>1</v>
+      </c>
+      <c r="H705">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>3726</v>
+      </c>
+      <c r="B706" s="2">
+        <v>45586</v>
+      </c>
+      <c r="C706">
+        <v>0</v>
+      </c>
+      <c r="D706">
+        <v>0.48333333333333328</v>
+      </c>
+      <c r="E706">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="F706">
+        <v>1</v>
+      </c>
+      <c r="H706">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>3727</v>
+      </c>
+      <c r="B707" s="2">
+        <v>45587</v>
+      </c>
+      <c r="C707">
+        <v>1</v>
+      </c>
+      <c r="D707">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E707">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="F707">
+        <v>1</v>
+      </c>
+      <c r="H707">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>3728</v>
+      </c>
+      <c r="B708" s="2">
+        <v>45588</v>
+      </c>
+      <c r="C708">
+        <v>0</v>
+      </c>
+      <c r="D708">
+        <v>0.48333333333333328</v>
+      </c>
+      <c r="E708">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="F708">
+        <v>1</v>
+      </c>
+      <c r="H708">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>3729</v>
+      </c>
+      <c r="B709" s="2">
+        <v>45589</v>
+      </c>
+      <c r="C709">
+        <v>0</v>
+      </c>
+      <c r="D709">
+        <v>0.38333333333333341</v>
+      </c>
+      <c r="E709">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="F709">
+        <v>1</v>
+      </c>
+      <c r="H709">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>3730</v>
+      </c>
+      <c r="B710" s="2">
+        <v>45590</v>
+      </c>
+      <c r="C710">
+        <v>0</v>
+      </c>
+      <c r="D710">
+        <v>0.65</v>
+      </c>
+      <c r="E710">
+        <v>0.35</v>
+      </c>
+      <c r="F710">
+        <v>0</v>
+      </c>
+      <c r="H710">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>3731</v>
+      </c>
+      <c r="B711" s="2">
+        <v>45593</v>
+      </c>
+      <c r="C711">
+        <v>0</v>
+      </c>
+      <c r="D711">
+        <v>0.5</v>
+      </c>
+      <c r="E711">
+        <v>0.5</v>
+      </c>
+      <c r="F711">
+        <v>0</v>
+      </c>
+      <c r="H711">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>3732</v>
+      </c>
+      <c r="B712" s="2">
+        <v>45594</v>
+      </c>
+      <c r="C712">
+        <v>1</v>
+      </c>
+      <c r="D712">
+        <v>0.65</v>
+      </c>
+      <c r="E712">
+        <v>0.35</v>
+      </c>
+      <c r="F712">
+        <v>0</v>
+      </c>
+      <c r="H712">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>3733</v>
+      </c>
+      <c r="B713" s="2">
+        <v>45595</v>
+      </c>
+      <c r="C713">
+        <v>0</v>
+      </c>
+      <c r="D713">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E713">
+        <v>0.45</v>
+      </c>
+      <c r="F713">
+        <v>0</v>
+      </c>
+      <c r="H713">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>3734</v>
+      </c>
+      <c r="B714" s="2">
+        <v>45596</v>
+      </c>
+      <c r="C714">
+        <v>0</v>
+      </c>
+      <c r="D714">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E714">
+        <v>0.45</v>
+      </c>
+      <c r="F714">
+        <v>0</v>
+      </c>
+      <c r="H714">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>3735</v>
+      </c>
+      <c r="B715" s="2">
+        <v>45597</v>
+      </c>
+      <c r="C715">
+        <v>0</v>
+      </c>
+      <c r="D715">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="E715">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="F715">
+        <v>0</v>
+      </c>
+      <c r="H715">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>3736</v>
+      </c>
+      <c r="B716" s="2">
+        <v>45600</v>
+      </c>
+      <c r="C716">
+        <v>0</v>
+      </c>
+      <c r="D716">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E716">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="F716">
+        <v>1</v>
+      </c>
+      <c r="H716">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>3737</v>
+      </c>
+      <c r="B717" s="2">
+        <v>45601</v>
+      </c>
+      <c r="C717">
+        <v>1</v>
+      </c>
+      <c r="D717">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E717">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F717">
+        <v>0</v>
+      </c>
+      <c r="H717">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>3738</v>
+      </c>
+      <c r="B718" s="2">
+        <v>45602</v>
+      </c>
+      <c r="C718">
+        <v>1</v>
+      </c>
+      <c r="D718">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E718">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F718">
+        <v>1</v>
+      </c>
+      <c r="H718">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>3739</v>
+      </c>
+      <c r="B719" s="2">
+        <v>45603</v>
+      </c>
+      <c r="C719">
+        <v>1</v>
+      </c>
+      <c r="D719">
+        <v>0.36666666666666659</v>
+      </c>
+      <c r="E719">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F719">
+        <v>1</v>
+      </c>
+      <c r="H719">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>3740</v>
+      </c>
+      <c r="B720" s="2">
+        <v>45604</v>
+      </c>
+      <c r="C720">
+        <v>1</v>
+      </c>
+      <c r="D720">
+        <v>0.48333333333333328</v>
+      </c>
+      <c r="E720">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="F720">
+        <v>1</v>
+      </c>
+      <c r="H720">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>3741</v>
+      </c>
+      <c r="B721" s="2">
+        <v>45607</v>
+      </c>
+      <c r="C721">
+        <v>0</v>
+      </c>
+      <c r="D721">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E721">
+        <v>0.45</v>
+      </c>
+      <c r="F721">
+        <v>0</v>
+      </c>
+      <c r="H721">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>3742</v>
+      </c>
+      <c r="B722" s="2">
+        <v>45608</v>
+      </c>
+      <c r="C722">
+        <v>0</v>
+      </c>
+      <c r="D722">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="E722">
+        <v>0.36666666666666659</v>
+      </c>
+      <c r="F722">
+        <v>0</v>
+      </c>
+      <c r="H722">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>3743</v>
+      </c>
+      <c r="B723" s="2">
+        <v>45609</v>
+      </c>
+      <c r="C723">
+        <v>0</v>
+      </c>
+      <c r="D723">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E723">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F723">
+        <v>0</v>
+      </c>
+      <c r="H723">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>3744</v>
+      </c>
+      <c r="B724" s="2">
+        <v>45610</v>
+      </c>
+      <c r="C724">
+        <v>0</v>
+      </c>
+      <c r="D724">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E724">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F724">
+        <v>0</v>
+      </c>
+      <c r="H724">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>3745</v>
+      </c>
+      <c r="B725" s="2">
+        <v>45611</v>
+      </c>
+      <c r="C725">
+        <v>0</v>
+      </c>
+      <c r="D725">
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="E725">
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="F725">
+        <v>0</v>
+      </c>
+      <c r="H725">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>3746</v>
+      </c>
+      <c r="B726" s="2">
+        <v>45614</v>
+      </c>
+      <c r="C726">
+        <v>1</v>
+      </c>
+      <c r="D726">
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="E726">
+        <v>0.18333333333333329</v>
+      </c>
+      <c r="F726">
+        <v>0</v>
+      </c>
+      <c r="H726">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>3747</v>
+      </c>
+      <c r="B727" s="2">
+        <v>45615</v>
+      </c>
+      <c r="C727">
+        <v>1</v>
+      </c>
+      <c r="D727">
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="E727">
+        <v>0.38333333333333341</v>
+      </c>
+      <c r="F727">
+        <v>0</v>
+      </c>
+      <c r="H727">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>3748</v>
+      </c>
+      <c r="B728" s="2">
+        <v>45616</v>
+      </c>
+      <c r="C728">
+        <v>1</v>
+      </c>
+      <c r="D728">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E728">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F728">
+        <v>0</v>
+      </c>
+      <c r="H728">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>3749</v>
+      </c>
+      <c r="B729" s="2">
+        <v>45617</v>
+      </c>
+      <c r="C729">
+        <v>1</v>
+      </c>
+      <c r="D729">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E729">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F729">
+        <v>0</v>
+      </c>
+      <c r="H729">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>3750</v>
+      </c>
+      <c r="B730" s="2">
+        <v>45618</v>
+      </c>
+      <c r="C730">
+        <v>1</v>
+      </c>
+      <c r="D730">
+        <v>0.65</v>
+      </c>
+      <c r="E730">
+        <v>0.35</v>
+      </c>
+      <c r="F730">
+        <v>0</v>
+      </c>
+      <c r="H730">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>3751</v>
+      </c>
+      <c r="B731" s="2">
+        <v>45621</v>
+      </c>
+      <c r="C731">
+        <v>0</v>
+      </c>
+      <c r="D731">
+        <v>0.48333333333333328</v>
+      </c>
+      <c r="E731">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="F731">
+        <v>1</v>
+      </c>
+      <c r="H731">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>3752</v>
+      </c>
+      <c r="B732" s="2">
+        <v>45622</v>
+      </c>
+      <c r="C732">
+        <v>1</v>
+      </c>
+      <c r="D732">
+        <v>0.65</v>
+      </c>
+      <c r="E732">
+        <v>0.35</v>
+      </c>
+      <c r="F732">
+        <v>0</v>
+      </c>
+      <c r="H732">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>3753</v>
+      </c>
+      <c r="B733" s="2">
+        <v>45623</v>
+      </c>
+      <c r="C733">
+        <v>0</v>
+      </c>
+      <c r="D733">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E733">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F733">
+        <v>0</v>
+      </c>
+      <c r="H733">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>3754</v>
+      </c>
+      <c r="B734" s="2">
+        <v>45625</v>
+      </c>
+      <c r="C734">
+        <v>1</v>
+      </c>
+      <c r="D734">
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="E734">
+        <v>0.31666666666666671</v>
+      </c>
+      <c r="F734">
+        <v>0</v>
+      </c>
+      <c r="H734">
+        <f t="shared" si="33"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
